--- a/biology/Zoologie/Conus_chiangi/Conus_chiangi.xlsx
+++ b/biology/Zoologie/Conus_chiangi/Conus_chiangi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus chiangi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 14 mm et 25 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Taiwan, des Philippines et du sud du Japon ; également au large de Vanuatu.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une distribution apparemment disjointe du Japon aux Philippines et à la Nouvelle-Calédonie elle est localement abondante il n'y a pas de menaces majeures connues, elle est donc classée comme étant de préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,19 +587,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une distribution apparemment disjointe du Japon aux Philippines et à la Nouvelle-Calédonie elle est localement abondante il n'y a pas de menaces majeures connues, elle est donc classée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus chiangi a été décrite pour la première fois en 1972 par le malacologiste japonais Masao Azuma (d) (1916-2001)[2] dans la publication intitulée « Venus »[3],[4].
-Synonymes
-Conus (Stephanoconus) chiangi (M. Azuma, 1972) · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus chiangi a été décrite pour la première fois en 1972 par le malacologiste japonais Masao Azuma (d) (1916-2001) dans la publication intitulée « Venus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Stephanoconus) chiangi (M. Azuma, 1972) · appellation alternative
 Cornutoconus lamellatus M. Suzuki, 1972 · non accepté
-Taranteconus chiangi M. Azuma, 1972 · non accepté (protonyme)
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus chiangi dans les principales bases sont les suivants :
+Taranteconus chiangi M. Azuma, 1972 · non accepté (protonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiangi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus chiangi dans les principales bases sont les suivants :
 BOLD : 507540 - CoL : XX5R - GBIF : 5857059 - iNaturalist : 431905 - IRMNG : 11777136 - NCBI : 592126 - TAXREF : 94339 - UICN : 192697 - WoRMS : 430142
 </t>
         </is>
